--- a/Management/Esquematico.xlsx
+++ b/Management/Esquematico.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\march\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\march\Documents\MRU\Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE1E625-3A65-4256-8704-8F8C94DDF0ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CE5DEF-7C05-4D70-A354-36C4E1B92121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -477,7 +477,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="pt-BR" sz="1800" b="1"/>
-            <a:t>MRU</a:t>
+            <a:t>DRMM</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1661,8 +1661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A5" zoomScale="110" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
